--- a/Prusa Spool Bot BOM.xlsx
+++ b/Prusa Spool Bot BOM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t xml:space="preserve">Prusa Spool Bot BOM</t>
   </si>
@@ -41,37 +41,163 @@
     <t xml:space="preserve">Sub</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes / Link</t>
+    <t xml:space="preserve">UK Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
   </si>
   <si>
     <t xml:space="preserve">55x68x7mm Bearing 61711 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://simplybearings.co.uk/shop/p188629/61711-Budget-Open-Type-Thin-Section-Deep-Groove-Ball-Bearing-55x68x7mm/product_info.html</t>
+    <t xml:space="preserve">61711 Bearing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4qeRzQE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shop around local for cheaper)</t>
   </si>
   <si>
     <t xml:space="preserve">10x3x4 Bearing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://simplybearings.co.uk/shop/p170604/623ZZ-Budget-Metal-Shielded-Deep-Groove-Ball-Bearing-3x10x4mm/product_info.html</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4ajuCWC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(Unknown quality!)</t>
   </si>
   <si>
     <t xml:space="preserve">Motor/Encoder</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.pololu.com/product/4862</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.pololu.com/product/4862</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Hub Adapter</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.pololu.com/product/1997</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.pololu.com/product/1997</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">M3 Button Head Set</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4q6ULh3</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4q6ULh3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4a8HcYu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">M3x6 Button Head Socket</t>
@@ -86,7 +212,46 @@
     <t xml:space="preserve">M3 Counter Sunk Set</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4ragjKA</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4ragjKA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4qXbHI8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">M3x6 CS Screw </t>
@@ -101,7 +266,46 @@
     <t xml:space="preserve">M4 Cap Head Set</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4qMgcFp</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4qMgcFp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/3O3PfhM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">M4x25 Cap Head</t>
@@ -110,13 +314,91 @@
     <t xml:space="preserve">M4x5 Black cap head</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/45wr8ye</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/45wr8ye</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4roa8Tb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">M4x8 CS + Nut Black</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/45ueRdQ</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/45ueRdQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4qVIehy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">M4 Square Nut</t>
@@ -128,25 +410,181 @@
     <t xml:space="preserve">No.2 x 6.4mm Screw</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4bmNia4</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4bmNia4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4taD7Md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">12x3x4 Magnets</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4sokrs0</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4sokrs0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4c5deai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">10x3x3 Magnets</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4qDw7Wc</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4qDw7Wc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4qhv7q1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">50mm Goolgy Eyes</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/3YJqABu</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/3YJqABu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4aso4G6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">M3 Heat Insert</t>
@@ -158,58 +596,319 @@
     <t xml:space="preserve">DF Robot Romeo ESP32</t>
   </si>
   <si>
-    <t xml:space="preserve">https://uk.farnell.com/dfrobot/dfr1063/romeo-mini-control-board-esp32/dp/4457374</t>
-  </si>
-  <si>
     <t xml:space="preserve">6A Toggle Switch (ON-ON)</t>
   </si>
   <si>
     <t xml:space="preserve">https://amzn.to/3YJVCch</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4r3gBDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">18 AWG silicone wire</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4qwDm1Z</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4qwDm1Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4acHDRK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">XT60 Male Connector</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4bJrepZ</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4bJrepZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4kcfxKM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Jumper F-F 100mm</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/49Qc7sr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QWIK Connector Jumper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thepihut.com/products/stemma-qt-qwiic-jst-sh-4-pin-cable-with-premium-female-sockets-150mm-long</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/49Qc7sr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/3OiPnKm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwiic Connector Jumper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwiic Jumper</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.adafruit.com/product/4397</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">6V NiMh Battery Hump Back</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.componentshop.co.uk/6v-3300mah-sc-nimh-hump-rc-battery-pack-vapex.html</t>
+    <t xml:space="preserve">6V NiMh Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Local R/C Shop? 3000 TO 5000MaH)</t>
   </si>
   <si>
     <t xml:space="preserve">Adafruit BNO085</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/4rjBVnJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST Connector Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prusament PLA</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4rjBVnJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.adafruit.com/product/4754</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dupont 0.1” Connector Kit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/49XTeVK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Prusament PLA/PETG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/4a9z8Xh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Prusament PETG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://amzn.to/3NTPufy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">LOOM</t>
@@ -241,7 +940,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00;[RED]\-[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,7 +970,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -319,7 +1032,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -336,7 +1049,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,8 +1061,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -360,15 +1073,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -452,7 +1161,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -460,8 +1169,9 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="115.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="23.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,13 +1198,19 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
@@ -506,8 +1222,14 @@
         <f aca="false">C6*D6</f>
         <v>26.92</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6</v>
@@ -527,8 +1249,14 @@
         <f aca="false">C7*D7</f>
         <v>13.38</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -548,8 +1276,11 @@
         <f aca="false">C9*D9</f>
         <v>123.9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -569,8 +1300,11 @@
         <f aca="false">C10*D10</f>
         <v>10.95</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,7 +1314,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -591,16 +1325,19 @@
       <c r="E12" s="3" t="n">
         <v>5.99</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>13</v>
@@ -616,17 +1353,15 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
       <c r="F14" s="8"/>
       <c r="G14" s="10"/>
       <c r="H14" s="2"/>
@@ -640,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>6</v>
@@ -655,7 +1390,7 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -666,8 +1401,11 @@
       <c r="E16" s="3" t="n">
         <v>5.58</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>21</v>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
@@ -676,17 +1414,15 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
       <c r="F17" s="8"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
@@ -695,17 +1431,15 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
       <c r="F18" s="8"/>
       <c r="G18" s="10"/>
       <c r="H18" s="2"/>
@@ -715,17 +1449,15 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
       <c r="F19" s="8"/>
       <c r="G19" s="10"/>
       <c r="H19" s="2"/>
@@ -735,11 +1467,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
       <c r="F20" s="8"/>
       <c r="G20" s="10"/>
       <c r="H20" s="2"/>
@@ -751,7 +1480,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -762,10 +1491,12 @@
       <c r="E21" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="10"/>
+      <c r="F21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -773,17 +1504,15 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
       <c r="F22" s="8"/>
       <c r="G22" s="10"/>
       <c r="H22" s="2"/>
@@ -793,25 +1522,27 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C23" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="3" t="n">
         <v>3.79</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="3" t="n">
         <v>3.79</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="10"/>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -823,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4</v>
@@ -834,10 +1565,12 @@
       <c r="E24" s="3" t="n">
         <v>6.58</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="10"/>
+      <c r="F24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -849,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4</v>
@@ -866,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>8</v>
@@ -893,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4</v>
@@ -904,10 +1637,12 @@
       <c r="E28" s="3" t="n">
         <v>1.39</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="10"/>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -919,7 +1654,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4</v>
@@ -930,8 +1665,11 @@
       <c r="E29" s="3" t="n">
         <v>9.98</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>37</v>
+      <c r="F29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,7 +1677,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4</v>
@@ -950,8 +1688,11 @@
       <c r="E30" s="3" t="n">
         <v>9.99</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>39</v>
+      <c r="F30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -970,8 +1711,11 @@
       <c r="E31" s="3" t="n">
         <v>4.19</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>41</v>
+      <c r="F31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,7 +1723,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>29</v>
@@ -990,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5</v>
@@ -1005,7 +1749,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1</v>
@@ -1017,8 +1761,8 @@
         <f aca="false">C35*D35</f>
         <v>17</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>45</v>
+      <c r="F35" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,7 +1770,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1</v>
@@ -1037,8 +1781,11 @@
       <c r="E36" s="3" t="n">
         <v>6.99</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>47</v>
+      <c r="F36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1</v>
@@ -1057,8 +1804,11 @@
       <c r="E37" s="3" t="n">
         <v>5.99</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>49</v>
+      <c r="F37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1816,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2</v>
@@ -1077,8 +1827,11 @@
       <c r="E38" s="3" t="n">
         <v>5.49</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>51</v>
+      <c r="F38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,7 +1839,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>10</v>
@@ -1097,8 +1850,11 @@
       <c r="E39" s="3" t="n">
         <v>6.99</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>53</v>
+      <c r="F39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,7 +1862,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1</v>
@@ -1118,8 +1874,11 @@
         <f aca="false">C40*D40</f>
         <v>1</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>55</v>
+      <c r="F40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,7 +1886,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2</v>
@@ -1139,8 +1898,11 @@
         <f aca="false">C41*D41</f>
         <v>28.7</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>57</v>
+      <c r="F41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,7 +1910,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1</v>
@@ -1156,8 +1918,11 @@
       <c r="E42" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>59</v>
+      <c r="F42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,7 +1930,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1</v>
@@ -1173,8 +1938,11 @@
       <c r="E43" s="3" t="n">
         <v>7.89</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>59</v>
+      <c r="F43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,7 +1954,7 @@
         <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1</v>
@@ -1196,6 +1964,9 @@
       </c>
       <c r="E45" s="2" t="n">
         <v>23.99</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,7 +1974,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1</v>
@@ -1214,14 +1985,63 @@
       <c r="E46" s="2" t="n">
         <v>23.99</v>
       </c>
+      <c r="G46" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="11" t="n">
         <f aca="false">SUM(E6:E47)</f>
         <v>382.67</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" display="61711 Bearing"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://amzn.to/4qeRzQE"/>
+    <hyperlink ref="F7" r:id="rId3" display="10x3x4 Bearing"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://amzn.to/4ajuCWC"/>
+    <hyperlink ref="F9" r:id="rId5" display="https://www.pololu.com/product/4862"/>
+    <hyperlink ref="G9" r:id="rId6" display="https://www.pololu.com/product/4862"/>
+    <hyperlink ref="F10" r:id="rId7" display="https://www.pololu.com/product/1997"/>
+    <hyperlink ref="G10" r:id="rId8" display="https://www.pololu.com/product/1997"/>
+    <hyperlink ref="F12" r:id="rId9" display="https://amzn.to/4q6ULh3"/>
+    <hyperlink ref="G12" r:id="rId10" display="https://amzn.to/4a8HcYu"/>
+    <hyperlink ref="F16" r:id="rId11" display="https://amzn.to/4ragjKA"/>
+    <hyperlink ref="G16" r:id="rId12" display="https://amzn.to/4qXbHI8"/>
+    <hyperlink ref="F21" r:id="rId13" display="https://amzn.to/4qMgcFp"/>
+    <hyperlink ref="G21" r:id="rId14" display="https://amzn.to/3O3PfhM"/>
+    <hyperlink ref="F23" r:id="rId15" display="https://amzn.to/45wr8ye"/>
+    <hyperlink ref="G23" r:id="rId16" display="https://amzn.to/4roa8Tb"/>
+    <hyperlink ref="F24" r:id="rId17" display="https://amzn.to/45ueRdQ"/>
+    <hyperlink ref="G24" r:id="rId18" display="https://amzn.to/4qVIehy"/>
+    <hyperlink ref="F28" r:id="rId19" display="https://amzn.to/4bmNia4"/>
+    <hyperlink ref="G28" r:id="rId20" display="https://amzn.to/4taD7Md"/>
+    <hyperlink ref="F29" r:id="rId21" display="https://amzn.to/4sokrs0"/>
+    <hyperlink ref="G29" r:id="rId22" display="https://amzn.to/4c5deai"/>
+    <hyperlink ref="F30" r:id="rId23" display="https://amzn.to/4qDw7Wc"/>
+    <hyperlink ref="G30" r:id="rId24" display="https://amzn.to/4qhv7q1"/>
+    <hyperlink ref="F31" r:id="rId25" display="https://amzn.to/3YJqABu"/>
+    <hyperlink ref="G31" r:id="rId26" display="https://amzn.to/4aso4G6"/>
+    <hyperlink ref="F35" r:id="rId27" display="DF Robot Romeo ESP32"/>
+    <hyperlink ref="F36" r:id="rId28" display="https://amzn.to/3YJVCch"/>
+    <hyperlink ref="G36" r:id="rId29" display="https://amzn.to/4r3gBDC"/>
+    <hyperlink ref="F37" r:id="rId30" display="https://amzn.to/4qwDm1Z"/>
+    <hyperlink ref="G37" r:id="rId31" display="https://amzn.to/4acHDRK"/>
+    <hyperlink ref="F38" r:id="rId32" display="https://amzn.to/4bJrepZ"/>
+    <hyperlink ref="G38" r:id="rId33" display="https://amzn.to/4kcfxKM"/>
+    <hyperlink ref="F39" r:id="rId34" display="https://amzn.to/49Qc7sr"/>
+    <hyperlink ref="G39" r:id="rId35" display="https://amzn.to/3OiPnKm"/>
+    <hyperlink ref="F40" r:id="rId36" display="Qwiic Jumper"/>
+    <hyperlink ref="G40" r:id="rId37" display="https://www.adafruit.com/product/4397"/>
+    <hyperlink ref="F41" r:id="rId38" display="6V NiMh Battery"/>
+    <hyperlink ref="F42" r:id="rId39" display="https://amzn.to/4rjBVnJ"/>
+    <hyperlink ref="G42" r:id="rId40" display="https://www.adafruit.com/product/4754"/>
+    <hyperlink ref="F43" r:id="rId41" display="https://amzn.to/4rjBVnJ"/>
+    <hyperlink ref="G43" r:id="rId42" display="https://amzn.to/49XTeVK"/>
+    <hyperlink ref="G45" r:id="rId43" display="https://amzn.to/4a9z8Xh"/>
+    <hyperlink ref="G46" r:id="rId44" display="https://amzn.to/3NTPufy"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1247,37 +2067,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Prusa Spool Bot BOM.xlsx
+++ b/Prusa Spool Bot BOM.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Loom" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="3D Printed Parts" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Loom" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t xml:space="preserve">Prusa Spool Bot BOM</t>
   </si>
@@ -56,25 +57,7 @@
     <t xml:space="preserve">61711 Bearing</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4qeRzQE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4qeRzQE </t>
   </si>
   <si>
     <t xml:space="preserve">(Shop around local for cheaper)</t>
@@ -83,25 +66,7 @@
     <t xml:space="preserve">10x3x4 Bearing</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4ajuCWC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4ajuCWC </t>
   </si>
   <si>
     <t xml:space="preserve">(Unknown quality!)</t>
@@ -110,94 +75,22 @@
     <t xml:space="preserve">Motor/Encoder</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.pololu.com/product/4862</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.pololu.com/product/4862 </t>
   </si>
   <si>
     <t xml:space="preserve">Hub Adapter</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.pololu.com/product/1997</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.pololu.com/product/1997 </t>
   </si>
   <si>
     <t xml:space="preserve">M3 Button Head Set</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4q6ULh3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4a8HcYu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4q6ULh3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4a8HcYu </t>
   </si>
   <si>
     <t xml:space="preserve">M3x6 Button Head Socket</t>
@@ -212,46 +105,10 @@
     <t xml:space="preserve">M3 Counter Sunk Set</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4ragjKA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4qXbHI8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4ragjKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4qXbHI8 </t>
   </si>
   <si>
     <t xml:space="preserve">M3x6 CS Screw </t>
@@ -266,46 +123,10 @@
     <t xml:space="preserve">M4 Cap Head Set</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4qMgcFp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/3O3PfhM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4qMgcFp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3O3PfhM </t>
   </si>
   <si>
     <t xml:space="preserve">M4x25 Cap Head</t>
@@ -314,91 +135,19 @@
     <t xml:space="preserve">M4x5 Black cap head</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/45wr8ye</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4roa8Tb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/45wr8ye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4roa8Tb </t>
   </si>
   <si>
     <t xml:space="preserve">M4x8 CS + Nut Black</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/45ueRdQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4qVIehy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/45ueRdQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4qVIehy </t>
   </si>
   <si>
     <t xml:space="preserve">M4 Square Nut</t>
@@ -410,181 +159,37 @@
     <t xml:space="preserve">No.2 x 6.4mm Screw</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4bmNia4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4taD7Md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4bmNia4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4taD7Md </t>
   </si>
   <si>
     <t xml:space="preserve">12x3x4 Magnets</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4sokrs0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4c5deai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4sokrs0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4c5deai </t>
   </si>
   <si>
     <t xml:space="preserve">10x3x3 Magnets</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4qDw7Wc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4qhv7q1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4qDw7Wc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4qhv7q1 </t>
   </si>
   <si>
     <t xml:space="preserve">50mm Goolgy Eyes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/3YJqABu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4aso4G6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/3YJqABu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4aso4G6 </t>
   </si>
   <si>
     <t xml:space="preserve">M3 Heat Insert</t>
@@ -602,160 +207,34 @@
     <t xml:space="preserve">https://amzn.to/3YJVCch</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4r3gBDC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4r3gBDC </t>
   </si>
   <si>
     <t xml:space="preserve">18 AWG silicone wire</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4qwDm1Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4acHDRK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4qwDm1Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4acHDRK </t>
   </si>
   <si>
     <t xml:space="preserve">XT60 Male Connector</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4bJrepZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4kcfxKM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4bJrepZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kcfxKM </t>
   </si>
   <si>
     <t xml:space="preserve">Jumper F-F 100mm</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/49Qc7sr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/3OiPnKm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/49Qc7sr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3OiPnKm </t>
   </si>
   <si>
     <t xml:space="preserve">Qwiic Connector Jumper</t>
@@ -764,25 +243,7 @@
     <t xml:space="preserve">Qwiic Jumper</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.adafruit.com/product/4397</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.adafruit.com/product/4397 </t>
   </si>
   <si>
     <t xml:space="preserve">6V NiMh Battery Hump Back</t>
@@ -797,118 +258,130 @@
     <t xml:space="preserve">Adafruit BNO085</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4rjBVnJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.adafruit.com/product/4754</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4rjBVnJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adafruit.com/product/4754 </t>
   </si>
   <si>
     <t xml:space="preserve">Dupont 0.1” Connector Kit</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/49XTeVK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/49XTeVK </t>
   </si>
   <si>
     <t xml:space="preserve">Prusament PLA/PETG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/4a9z8Xh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/4a9z8Xh </t>
   </si>
   <si>
     <t xml:space="preserve">Prusament PETG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://amzn.to/3NTPufy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://amzn.to/3NTPufy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHG M1.5 18T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake Side Filament Removable End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake Side Filament V1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filament Hub V1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removable Side Shim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axle Body Spacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spool Bearing Holder MAG P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic Side (Left)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spool Bearing Holder MAG P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spool Bearing Holder P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spool Bearing Holder P1 Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Side (Right)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spool Bearing Holder P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spool Bearing Holder P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axle Lock V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery Mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Hub Clamp V1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMU Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romeo Mini Mount V1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spool Gear Hub Fixed Side UNITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Right side)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spool Gear Hub UNITE 80T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Left Side)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Googly Eye Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Parts</t>
   </si>
   <si>
     <t xml:space="preserve">LOOM</t>
@@ -936,9 +409,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00;[RED]\-[$£-809]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1032,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1079,6 +553,18 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1153,6 +639,122 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>637560</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4876920"/>
+          <a:ext cx="5390640" cy="1914120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464040</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>98280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6990120"/>
+          <a:ext cx="8372160" cy="1723680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444960</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8940960"/>
+          <a:ext cx="8353080" cy="2943000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1160,8 +762,8 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1171,7 +773,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="32.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,7 +803,7 @@
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1228,7 +830,7 @@
       <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1255,7 +857,7 @@
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1346,7 +948,6 @@
       <c r="E13" s="9"/>
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1364,7 +965,6 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1381,7 +981,6 @@
         <v>6</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1407,7 +1006,6 @@
       <c r="G16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
@@ -1424,7 +1022,6 @@
         <v>12</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
@@ -1442,7 +1039,6 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1460,7 +1056,6 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1471,7 +1066,6 @@
       <c r="C20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1497,7 +1091,6 @@
       <c r="G21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1515,7 +1108,6 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1543,7 +1135,6 @@
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1571,7 +1162,6 @@
       <c r="G24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1588,7 +1178,6 @@
         <v>4</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1605,7 +1194,6 @@
         <v>8</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1615,7 +1203,6 @@
       <c r="A27" s="5"/>
       <c r="C27" s="2"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1643,7 +1230,6 @@
       <c r="G28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1901,7 +1487,7 @@
       <c r="F41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1998,49 +1584,49 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="61711 Bearing"/>
-    <hyperlink ref="G6" r:id="rId2" display="https://amzn.to/4qeRzQE"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://amzn.to/4qeRzQE "/>
     <hyperlink ref="F7" r:id="rId3" display="10x3x4 Bearing"/>
-    <hyperlink ref="G7" r:id="rId4" display="https://amzn.to/4ajuCWC"/>
-    <hyperlink ref="F9" r:id="rId5" display="https://www.pololu.com/product/4862"/>
-    <hyperlink ref="G9" r:id="rId6" display="https://www.pololu.com/product/4862"/>
-    <hyperlink ref="F10" r:id="rId7" display="https://www.pololu.com/product/1997"/>
-    <hyperlink ref="G10" r:id="rId8" display="https://www.pololu.com/product/1997"/>
-    <hyperlink ref="F12" r:id="rId9" display="https://amzn.to/4q6ULh3"/>
-    <hyperlink ref="G12" r:id="rId10" display="https://amzn.to/4a8HcYu"/>
-    <hyperlink ref="F16" r:id="rId11" display="https://amzn.to/4ragjKA"/>
-    <hyperlink ref="G16" r:id="rId12" display="https://amzn.to/4qXbHI8"/>
-    <hyperlink ref="F21" r:id="rId13" display="https://amzn.to/4qMgcFp"/>
-    <hyperlink ref="G21" r:id="rId14" display="https://amzn.to/3O3PfhM"/>
-    <hyperlink ref="F23" r:id="rId15" display="https://amzn.to/45wr8ye"/>
-    <hyperlink ref="G23" r:id="rId16" display="https://amzn.to/4roa8Tb"/>
-    <hyperlink ref="F24" r:id="rId17" display="https://amzn.to/45ueRdQ"/>
-    <hyperlink ref="G24" r:id="rId18" display="https://amzn.to/4qVIehy"/>
-    <hyperlink ref="F28" r:id="rId19" display="https://amzn.to/4bmNia4"/>
-    <hyperlink ref="G28" r:id="rId20" display="https://amzn.to/4taD7Md"/>
-    <hyperlink ref="F29" r:id="rId21" display="https://amzn.to/4sokrs0"/>
-    <hyperlink ref="G29" r:id="rId22" display="https://amzn.to/4c5deai"/>
-    <hyperlink ref="F30" r:id="rId23" display="https://amzn.to/4qDw7Wc"/>
-    <hyperlink ref="G30" r:id="rId24" display="https://amzn.to/4qhv7q1"/>
-    <hyperlink ref="F31" r:id="rId25" display="https://amzn.to/3YJqABu"/>
-    <hyperlink ref="G31" r:id="rId26" display="https://amzn.to/4aso4G6"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://amzn.to/4ajuCWC "/>
+    <hyperlink ref="F9" r:id="rId5" display="https://www.pololu.com/product/4862 "/>
+    <hyperlink ref="G9" r:id="rId6" display="https://www.pololu.com/product/4862 "/>
+    <hyperlink ref="F10" r:id="rId7" display="https://www.pololu.com/product/1997 "/>
+    <hyperlink ref="G10" r:id="rId8" display="https://www.pololu.com/product/1997 "/>
+    <hyperlink ref="F12" r:id="rId9" display="https://amzn.to/4q6ULh3 "/>
+    <hyperlink ref="G12" r:id="rId10" display="https://amzn.to/4a8HcYu "/>
+    <hyperlink ref="F16" r:id="rId11" display="https://amzn.to/4ragjKA "/>
+    <hyperlink ref="G16" r:id="rId12" display="https://amzn.to/4qXbHI8 "/>
+    <hyperlink ref="F21" r:id="rId13" display="https://amzn.to/4qMgcFp "/>
+    <hyperlink ref="G21" r:id="rId14" display="https://amzn.to/3O3PfhM "/>
+    <hyperlink ref="F23" r:id="rId15" display="https://amzn.to/45wr8ye "/>
+    <hyperlink ref="G23" r:id="rId16" display="https://amzn.to/4roa8Tb "/>
+    <hyperlink ref="F24" r:id="rId17" display="https://amzn.to/45ueRdQ "/>
+    <hyperlink ref="G24" r:id="rId18" display="https://amzn.to/4qVIehy "/>
+    <hyperlink ref="F28" r:id="rId19" display="https://amzn.to/4bmNia4 "/>
+    <hyperlink ref="G28" r:id="rId20" display="https://amzn.to/4taD7Md "/>
+    <hyperlink ref="F29" r:id="rId21" display="https://amzn.to/4sokrs0 "/>
+    <hyperlink ref="G29" r:id="rId22" display="https://amzn.to/4c5deai "/>
+    <hyperlink ref="F30" r:id="rId23" display="https://amzn.to/4qDw7Wc "/>
+    <hyperlink ref="G30" r:id="rId24" display="https://amzn.to/4qhv7q1 "/>
+    <hyperlink ref="F31" r:id="rId25" display="https://amzn.to/3YJqABu "/>
+    <hyperlink ref="G31" r:id="rId26" display="https://amzn.to/4aso4G6 "/>
     <hyperlink ref="F35" r:id="rId27" display="DF Robot Romeo ESP32"/>
     <hyperlink ref="F36" r:id="rId28" display="https://amzn.to/3YJVCch"/>
-    <hyperlink ref="G36" r:id="rId29" display="https://amzn.to/4r3gBDC"/>
-    <hyperlink ref="F37" r:id="rId30" display="https://amzn.to/4qwDm1Z"/>
-    <hyperlink ref="G37" r:id="rId31" display="https://amzn.to/4acHDRK"/>
-    <hyperlink ref="F38" r:id="rId32" display="https://amzn.to/4bJrepZ"/>
-    <hyperlink ref="G38" r:id="rId33" display="https://amzn.to/4kcfxKM"/>
-    <hyperlink ref="F39" r:id="rId34" display="https://amzn.to/49Qc7sr"/>
-    <hyperlink ref="G39" r:id="rId35" display="https://amzn.to/3OiPnKm"/>
+    <hyperlink ref="G36" r:id="rId29" display="https://amzn.to/4r3gBDC "/>
+    <hyperlink ref="F37" r:id="rId30" display="https://amzn.to/4qwDm1Z "/>
+    <hyperlink ref="G37" r:id="rId31" display="https://amzn.to/4acHDRK "/>
+    <hyperlink ref="F38" r:id="rId32" display="https://amzn.to/4bJrepZ "/>
+    <hyperlink ref="G38" r:id="rId33" display="https://amzn.to/4kcfxKM "/>
+    <hyperlink ref="F39" r:id="rId34" display="https://amzn.to/49Qc7sr "/>
+    <hyperlink ref="G39" r:id="rId35" display="https://amzn.to/3OiPnKm "/>
     <hyperlink ref="F40" r:id="rId36" display="Qwiic Jumper"/>
-    <hyperlink ref="G40" r:id="rId37" display="https://www.adafruit.com/product/4397"/>
+    <hyperlink ref="G40" r:id="rId37" display="https://www.adafruit.com/product/4397 "/>
     <hyperlink ref="F41" r:id="rId38" display="6V NiMh Battery"/>
-    <hyperlink ref="F42" r:id="rId39" display="https://amzn.to/4rjBVnJ"/>
-    <hyperlink ref="G42" r:id="rId40" display="https://www.adafruit.com/product/4754"/>
-    <hyperlink ref="F43" r:id="rId41" display="https://amzn.to/4rjBVnJ"/>
-    <hyperlink ref="G43" r:id="rId42" display="https://amzn.to/49XTeVK"/>
-    <hyperlink ref="G45" r:id="rId43" display="https://amzn.to/4a9z8Xh"/>
-    <hyperlink ref="G46" r:id="rId44" display="https://amzn.to/3NTPufy"/>
+    <hyperlink ref="F42" r:id="rId39" display="https://amzn.to/4rjBVnJ "/>
+    <hyperlink ref="G42" r:id="rId40" display="https://www.adafruit.com/product/4754 "/>
+    <hyperlink ref="F43" r:id="rId41" display="https://amzn.to/4rjBVnJ "/>
+    <hyperlink ref="G43" r:id="rId42" display="https://amzn.to/49XTeVK "/>
+    <hyperlink ref="G45" r:id="rId43" display="https://amzn.to/4a9z8Xh "/>
+    <hyperlink ref="G46" r:id="rId44" display="https://amzn.to/3NTPufy "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2057,6 +1643,424 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="14" t="n">
+        <f aca="false">SUM(C3:C27)</f>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2067,37 +2071,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
